--- a/data/distri.xlsx
+++ b/data/distri.xlsx
@@ -720,244 +720,244 @@
     <t>(2.311836890734963e-05, -327.80879429880775, 3.1251537768472852)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603690760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cfe0e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60378dbd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d1ed0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c03a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036901f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600076e90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c14e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e6da0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606086a10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe1c3d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c0310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe1fee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe1d3c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005fdc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe1d3f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c35e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe1dfc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef4580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f1e70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603692590&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c17b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d3ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603691db0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60383f730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370fcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e5810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d0250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6e7d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60373d5a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603692560&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603771180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d1600&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c1720&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603770f70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603baac50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cffc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c9ad40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe1f1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036913f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c10f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d35e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe1c5b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e6cb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396d9f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d3010&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d06a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e5f60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cda200&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c0ca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60383f790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60383cd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020ccd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f1ab0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606140610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603add5a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603691420&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed4460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e64d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370ebf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370f550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606086c50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d1b70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60383e2f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d25f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60383d810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60373c400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370d1b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cfc5e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603692350&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e4850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d3cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603692980&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60383e830&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d3880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603690160&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d2380&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600077a60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60383cb20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d03d0&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daf070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16dafb50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f48e1dff0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daae30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700aec0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700a020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8c2e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700a1a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da8940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f48e1eb90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172aad10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700b490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e37f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172ab8e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e31f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172aae90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700a200&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e2e00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e1db0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f48e1e950&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f7fd90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700b550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da9a80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f7f4f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8c1f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f88d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f7f850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da8280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f48e1ed10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f88ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f7f910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8e650&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da9c60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700b250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da9e40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16dab850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16dafd60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172aaf20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e39d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daa020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700ab90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daab60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf8d900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daa0b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da9f90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16dab160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16dab4f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daa2c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f48e1d000&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700a710&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8c730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8c7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d791e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f48e1eef0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daa3b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0c4cc880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f7fdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e2350&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da9990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee4e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee7fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f48e1c580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da8d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8f430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8eb00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8d5d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee5c00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f8ac20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da86a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16dafdc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f7fd00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da81c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da8c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8f7f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daa680&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f7f1f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da94e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d79150&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8d300&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16dabbb0&gt;</t>
   </si>
   <si>
     <t>#e41a1c</t>
@@ -1404,244 +1404,244 @@
     <t>(1.525547123555655e-05, -440.28439961630716, 4.176037589441046)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fbcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bcd960&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036906d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6069f2c20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60388ffa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fe320&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2f520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ba0340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a393c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2dd80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2c0d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a1ed0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386d270&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f28ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7d090&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b5f90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2c9a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2cbe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600101870&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c602b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fc640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603883f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603882e90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603911b10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2d780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603912080&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2e8c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c63d00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a1e680&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffdebb50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fd180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2de40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f29180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2ae30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2e620&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7fb80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c63e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2ea70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fd900&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a393f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ba2230&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603574340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600100190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c08ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2e6b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386ecb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038a7f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2ceb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2d360&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2dfc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f29300&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2ca30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e67d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e5990&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2c6d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2f2e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2e7d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603574fd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e7190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fc1c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603880e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600103580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2d990&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a1240&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c28d90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d0220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2dc30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386f640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606163a90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c3f70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ba05b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2ec50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fd2a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0bf70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b4970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038d4b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fd450&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fffa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2f1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2d720&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e04490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8d2d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da8fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8cdc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8eb30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf00ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be80d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d785b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de53f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8f730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3e1a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de65c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de6230&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de41c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de5a20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de7df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3ec50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3e710&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7bd90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de7610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf01630&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7a380&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e05bd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d79cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8c220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7a6b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3e920&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de6c80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8d690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7bdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be83dc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3f7f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de6950&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de7490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be80f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de6170&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de4820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be81c60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be81090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7ace0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7a950&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be837f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de76d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d79330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3d1e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7af80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8cac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be82b30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be81f30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3fd90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3e7d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3ca00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf022f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be82c20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be827a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be81810&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3f610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be80d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be835b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be82fb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7a560&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de7eb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3f8e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8eaa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d36860&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16dabeb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3ed10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de55d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de43d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be81030&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d36b60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3e560&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf01e70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de5e40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d37130&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d79570&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf00cd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf00940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3ca30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be82050&gt;</t>
   </si>
   <si>
     <t>(0.8854532809021252,)</t>
@@ -2061,244 +2061,244 @@
     <t>(2.0503333412608615e-05, -470.9330065411459, 4.4387226870788705)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0b850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c8430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038ca8f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038ca9b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fa680&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fb9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60388c370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f8f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386f880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fba30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037fc730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c9720&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038cbf10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b4340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c9f30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f8700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c8ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f8be0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c9990&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f94e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0a9e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c9a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f9d80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038cabc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c8f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c92d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c8610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fbbe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038cbd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f0670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f38e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fb4c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f92a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0a170&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c8490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c94b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fbee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60388dc30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fa9b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b7700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60388c310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039ee800&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fadd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038ca5c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b7970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c90f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038cae30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b4430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0aad0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039efd00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039ee440&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c9e10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b72e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039ee230&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fb130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b4910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fad70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fa2c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039effd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039efdc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f9780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039efee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039ef790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fa4a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fa710&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fab60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a09270&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039ed0f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039ef8e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603881f00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f8670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603882380&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0a890&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b67a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a08e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038b7f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038c9ab0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0b5e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0ace0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039ef850&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2d600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da2020&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d8ed40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da2260&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd16f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd2e00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da2890&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be81600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da22f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd1900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16daa9e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e03610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e01ae0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da31f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e02da0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd1510&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e03ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd3cd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e00fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd20b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e26a70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e03460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd00d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da14e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da2b60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e03a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da2fb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd2140&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e00280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bec6ce0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da36d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd1060&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd2f20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e24d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e02f80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e00a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e02c80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be80df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd0b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da3910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf01f90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e25090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e03be0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e01600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da22c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e00790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e010f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da2170&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e24460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e259f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e25cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e02140&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da29e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd07c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd1090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da3670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd0d90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd0220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e258d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e26050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd03a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e26a10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd0c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd0640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd0e50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd37c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2d510&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e26ec0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e25c00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bec5b10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e03160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be824d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e276a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf02530&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e26320&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05da0ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e000a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2d900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e26230&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd0be0&gt;</t>
   </si>
   <si>
     <t>(1.0351237657811323, 0.8846963517929619)</t>
@@ -2718,244 +2718,244 @@
     <t>(2.1458410186540553e-05, -290.9154469045171, 3.2136691534776087)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f2110&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603af0b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603821810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adf580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001a04c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039fb160&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b0aaa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b45ab0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b09ff0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b0ba60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b093f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b08e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396c7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396c100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a39b70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b081c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b0b4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a3b160&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b0b280&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b09960&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b44880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603af0250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b096c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b0ae00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396d690&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a382b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a39f60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396e5f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603af3400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396cc10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b0b8e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ab9900&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b09c60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a38130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a39c60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ab8ca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b478b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a392d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396f040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a39060&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a3bfa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ab85e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a38220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a38070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ab9db0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603abb790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603af2d10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a39d20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b0aad0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603abb010&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603abae90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a3bc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b089a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a3ab90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a397b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603abb250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ab8070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b09c30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396cbe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396cd00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396f610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a09480&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603abb130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396e6b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396dcf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a39390&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603abbd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b080d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ab8790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603add060&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b0aef0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001a0430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b08ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b09060&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603abbc10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ab8c10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b096f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adc910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ab9390&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396fa00&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d34100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb91b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb9690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cffd60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb9900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd2860&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8e650&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8cf10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ce68c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c15330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd2c20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8c490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c64d00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c646d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cba470&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8ccd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8f9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8d540&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8c880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8f340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8e860&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb9330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05dd2b60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8d570&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c66b30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cbbdc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb9f90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c64e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb9cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c679d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8d750&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cff6d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8e770&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cbac80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8d510&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfc790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e27e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cba0e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c64820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c67490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb97e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c67970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb9930&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8ee90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c64b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c661d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb9870&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8e620&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8e710&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfc5b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfd6f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb96f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8d780&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cba380&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8d9f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c66920&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c664a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8eef0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c66200&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c67310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c66b00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8dfc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c67d90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c667d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c65c60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cb84f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfc040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c175b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cff520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cf11b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c16b30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cba440&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8f250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ce64a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfe1d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfebf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c8cdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfe1a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfc550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c653c0&gt;</t>
   </si>
   <si>
     <t>(0.9885050842401566,)</t>
@@ -3372,244 +3372,244 @@
     <t>(2.1991887816749222e-05, -264.2509146021248, 3.151114880170388)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d953c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396eef0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbca30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbd030&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbe620&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db49d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d959c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbf4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbd180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbde10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396f910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbe920&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db75e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbe470&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d31ab0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d30d90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c99360&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d321d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d94ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d30ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db4370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de1060&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbdc60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d94700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d30ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d31870&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbfc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbef20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c98970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbf6a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d97cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d32260&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db58d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbc2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f2e00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d31210&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d31900&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adc3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d33010&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d95480&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d962c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbf250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c980a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d97670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d32800&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbe200&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbf430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db7e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d333d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d96ec0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d95690&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d328f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d976d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d95210&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d96e60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d97250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c9a440&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d30c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d31270&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbc550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d94490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c98d00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d30a60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de0790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c99930&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d32710&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbec50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbe1d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbe980&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbe0e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d30dc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbe560&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c9b190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d964d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db6230&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbee30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cbc1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c9add0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c9b220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d94040&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bdb5e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c66e30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8ef20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b55000&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b93be0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b90670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf95d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8d330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b917b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8f730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c64040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b934c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b91a50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfca00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b91690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b93100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf8af0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b924a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfb160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b929b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cf3700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b92f80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8c220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf9a50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b902e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b933a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cfff10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b91930&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bd9b70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c64730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfa0b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b93ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b90a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b550c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8c5b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b91e40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b914b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8f490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b92230&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfa4a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfab60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b54f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bd80d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfbb20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b92800&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8c310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8cc40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b90e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b931f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfb130&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfaa40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b91300&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf8670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bda2f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfa800&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf9a20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bd9960&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf8fa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf9270&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b55570&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf9540&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bd8e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf8c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8d750&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bdb370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b90280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c65660&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b1fb80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8ebf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cf0940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf9060&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b57190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bd99c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf8580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8cf10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cf2b00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b8d420&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfb550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bd8760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bfaaa0&gt;</t>
   </si>
   <si>
     <t>(1.368324754591605, 0.8559633044907917)</t>
@@ -4029,244 +4029,244 @@
     <t>(1.7731277157192287e-05, -284.984424652288, 2.998780808071986)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cfec80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c9a860&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c99150&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cd9f90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d947c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cdae00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600091cf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c994b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6df30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6e800&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6dcf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000779d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000753c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c981f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d34c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000771f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d0a00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6ca60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6e260&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d947f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cda620&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c982b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600075390&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6d810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c9a260&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cd9810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d1d80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de6020&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600090b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cdbf10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d97430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c9b9a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6ee60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6ead0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6ebc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cda920&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6fc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cd8ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cd89d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000752d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600090370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d3ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600077940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cdbcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6d030&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6ca30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600076aa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cdb970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6f640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d03a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d09a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d1030&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d3820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000922c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d2920&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d0df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d0e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000754b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cd86a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d2950&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d2bf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d31f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d1e70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600091bd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6cee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c98e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6c1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600074790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000923e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cda470&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d27d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cdadd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cdb160&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6ff10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600093d60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de4220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d2d40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000929e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d0730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000d1ae0&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af2fe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a69330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a699c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dae1d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf8df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dac670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d55600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a6b9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a68400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a69900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a696c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d81600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d80670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a6aa10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6feb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d80d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d806a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a69030&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a6ae60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dae530&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08daf010&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d80a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d82560&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a6be80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a6bdc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dadcf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d801c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac7fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6cbe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08daf7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a69a80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d801f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08daf820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a69c90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a68820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dae410&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a6b550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dad5a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08daf9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d82f20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6f2b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6c9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a6bfa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08daf5b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a6a0e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a689d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d80280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dae5f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d812a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6dff0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6d690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d80490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d80cd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6eaa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d83070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6d4e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6cd60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d83400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dae770&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d82b30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6d060&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d83760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6dea0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d55ab0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a68370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a68130&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a69420&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d827d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6e6e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08daf4f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6c040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08bf9ea0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9bbe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a68190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6e3e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac7f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d55a20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6d9c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d82140&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d80c70&gt;</t>
   </si>
   <si>
     <t>(191.80428567740321,)</t>
@@ -4686,244 +4686,244 @@
     <t>(1.2269038222233525e-05, -282.56328286576206, 2.4871851794659943)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6000928c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600169e70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001683a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600154c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016a170&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f6e30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600155180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016b6a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016b910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020e650&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037ff7c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600169210&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020df60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed4fd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016be20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016bd60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016bf40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603cd8b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed6bc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f5f60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f4250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f7220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016b580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed7760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022c400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600169e10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0b2e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f4b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016a1a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f7a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f6800&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f5420&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f5870&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600157af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016b670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020c7c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f57e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001685e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020f460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f71c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600169090&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020fbe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f42e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600169810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f63e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600154c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed6560&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016b6d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600155810&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f7460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016a950&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600168040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f4d60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f7be0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001566b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600156d70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020d9c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600156a40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f7250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffde9750&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001570a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600154520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600157700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f7d00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600156860&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016bb20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001571c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f44f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600155ae0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f64d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016bee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016a800&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016b3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016bb50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001568f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed40d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016a380&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed4580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed5540&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f45e0&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f9960&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e2cb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089baa40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e0ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e3760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b8e50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f9210&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089fbbe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16da8580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b9480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08739930&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089fb310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f9a20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b8430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0896ab00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08720460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e1a20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e0730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e0df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08721510&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f9420&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f9720&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b8ca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e0850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f84c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e0940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08720850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e1900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e1030&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e1330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089bb220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e0e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d83ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089fa950&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e04c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f88e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089fa0e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089fb640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e3430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08722500&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08722560&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b9330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087206a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e0550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b9e70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e36d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e1510&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08721300&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08721c30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8130&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08721090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e1ab0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e1d50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e3cd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e2e90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08720a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e3970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08721ba0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089bb3d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08722620&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e2a40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08738970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089f8f70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089bb700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0896b7f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089baa70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0896add0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087202b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08721d80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089bb1f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08739690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08722800&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e33d0&gt;</t>
   </si>
   <si>
     <t>(1.0463172912140604,)</t>
@@ -5343,244 +5343,244 @@
     <t>(1.644060746501112e-06, -271.8934174469871, 0.8839144691663612)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a2170&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef4d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7f880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7e110&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f5b9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600154220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef4b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7fca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa40a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022fdf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa5720&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7dd80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa4820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef65f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a0d90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7de70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f58ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7f6a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa5930&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef7eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600155a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef6260&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606086350&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f5b670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600157040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f5a680&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa6740&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f5b040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa63b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f59900&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef50c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef5d20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f59330&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f59e10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa6230&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef5930&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f5a290&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef5c30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f5ac20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa55a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a2770&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a0250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a0130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f582b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a0730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a3d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a3f70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022e140&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef5420&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f5b700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa6dd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7ee60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7de40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa5960&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa5360&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f29ff0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa5660&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a3670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a38b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa6e00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a2440&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600093370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe48a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a2fe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a00a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef4400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ef4970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605f583d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7fa00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606084340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed4f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7dd50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a1cf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606086b90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe4b100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7f130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe7fd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060860e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606084790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa7160&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a384f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089423b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f8ab30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08940190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089433d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d55f00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08994d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08997c10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a98e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172ab010&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9a140&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f17009810&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9ba90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700b190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af1d50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f8b490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a99b40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172ab040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a98a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089417b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700b0d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d56aa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af00a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a986d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089426e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08942440&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9b760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9a440&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9bd90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d56c20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08995960&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08995420&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08941ed0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a99c90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a98a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089975e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d547c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08996d40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d57490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9b1f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af1cc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af0460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9b130&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d54af0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af3d00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af33d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a99cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f89c00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08942dd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d57520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a994e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700a5c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f170096c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a983a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a99f30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08997be0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9a860&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9a3e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af3c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9bc70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af39a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700b070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f88970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af3670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9b730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08943100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089431f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9a200&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f89d50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a382b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f8b6d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f88070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af2830&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af0190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16f89390&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f1700beb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172aaa40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a3b400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08af39d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d54a60&gt;</t>
   </si>
   <si>
     <t>(0.8915372068492654,)</t>
@@ -6000,244 +6000,244 @@
     <t>(2.2281491218227714e-05, -276.11131207055223, 3.11928806810762)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60600a200&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f1f00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd31f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60627a470&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fff730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6069f3ca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fff670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060772b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6441bdff0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606008e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606087760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60600a5f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fffdf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060093c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ffc880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fff220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606086f50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606085a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606140e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606084df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606008c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606162da0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606009750&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6061625f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ffd840&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6441bca90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60600b490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60600b5e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606279600&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606087df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a16f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6069f2cb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f0850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ffc310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60627b3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060776d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606086920&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a0cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6441beda0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606084bb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606085fc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606009930&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60600a500&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606008b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60600a590&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606085780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fff370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6069f1b70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606008220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606162470&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f31c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606160eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6441bdcf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606084610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6069f3ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606162ec0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ffe9b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fff6a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60600a7d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606086ec0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fff4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606085b10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6441bdf90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6069f2350&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606141bd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606085270&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6069f20b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f0eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606279fc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60600b070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6069f39a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606076f20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f3b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fa72e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f2ef0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605ffd870&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060a3cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f0280&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063f3b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606085840&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c152d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9fdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08cf0040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e575e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e572e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e03df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e557b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e54610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2f8e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c16d40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a9a620&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c14610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e56e90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c16ec0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e540a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e57a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2d2a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2d0c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2c400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2e1d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c17370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9dfc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c172b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e259c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e556f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2c700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c15e40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c15cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e555d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2e2c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c16530&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2ff70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9db70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e56fe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b55360&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ce6530&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c14b50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e57c70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2cac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2f280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c163e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c160b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c154b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c14be0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c16410&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2fcd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e550c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e25ba0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c166b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2ead0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9c490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9ea70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c14c10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2de10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e24700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2d930&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e56c80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e56f50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2eb90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2ff40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e55090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e261a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e27880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e24f70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2ed70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2fc10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9c160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9dd50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ce6fb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c17d00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9e110&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ce4280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9d2a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a99060&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9d3c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e57220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08c15f90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9c340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be9e3b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e03520&gt;</t>
   </si>
   <si>
     <t>(0.9527333164421666, 0.9793419414224878)</t>
@@ -6654,244 +6654,244 @@
     <t>(1.8984221005026352e-05, -280.5440660341627, 3.058986434697223)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6065267d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b53d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060086a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e32320&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062d1d50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370c2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd2470&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd4700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e323e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e32da0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d566e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606279a20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e5d20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6035f8250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e31900&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370eb00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb647afd480&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6039f9a20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e41f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606278b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e32350&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e32770&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd50c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e30df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e30f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370fa00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062d2680&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd4940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e33a60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c3b010&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370e020&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd07f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2c4c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd6950&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d55690&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370f1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d56500&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e33250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370e110&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e31450&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd3670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e325f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60627bf40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e4e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e31750&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e33760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd1d50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd35b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e31db0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e4220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d54ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd4fa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060089a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd44c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606278940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e30940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd4f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d55a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd53c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd2f80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd1660&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e31a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd0100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60370ce80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e33130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d57910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e317b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd54b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6035f82b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603bd4f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e31ff0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd2a10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606085000&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d544f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e31f00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037e4d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e30610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606279f30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd09d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d574c0&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e04a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e242e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08b1ec80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d34070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f48dcff10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e07490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0889ac50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e17070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d37ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf02a70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e06a70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e14ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee53c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d79a50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e30d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e05660&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e066b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee4730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee60e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0889a230&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0c671780&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e1f60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee64a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16de5750&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e3d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee6920&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e064a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee4a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e2620&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e1e10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e05570&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e16dd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e04df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee6860&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf02dd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e07a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e176d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d7b580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e05480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d78760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e15c30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e06320&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e16e30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e06ef0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d78d90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e074f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e15c60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e163b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0be3c400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee4310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e156c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee4550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e03a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee5000&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e16f80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e2f50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee69b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e15f60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee7be0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e17310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e17640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e04f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088981f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e05cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e2500&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0bf02980&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e3580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee6320&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e1cc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee77f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e1780&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08898250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e17a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f172e1900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16d796c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16ee5e70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08a3ad40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e17340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08898760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e16290&gt;</t>
   </si>
   <si>
     <t>(0.7698616540292496,)</t>
@@ -7311,244 +7311,244 @@
     <t>(1.7217755060170984e-05, -306.1616364569717, 2.842905300585276)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed6740&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d572b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe97d60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd29e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60003a740&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe497e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffde9780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005d1b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005f280&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe4ab60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe48c10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb605fd1750&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005ff10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed66e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005cbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60016b640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffde96c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe972e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005efb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005f4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe492a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005fa30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020ed10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed79d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020cf70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe494e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe1ff70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe4aa70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600039330&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001f7040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005e1a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe484c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005de40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005f970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022d8a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005e350&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005c2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020c6d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed4760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffde9690&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020f640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60003bc70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe48250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe963e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005cac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe491b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe94730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60003a200&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed5a80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe4a380&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022eaa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d563b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed5de0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005cdc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed6a40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe964a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60003b640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600039db0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005ecb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005e1d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed51e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005fc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005ee60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60003bd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005df90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022cf70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60003a7a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed5c90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022fbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed6830&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600039450&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60020f7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffde8070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed5930&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022fe50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffed5360&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe96b00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60003bf10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60022c100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005ce80&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac42b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886c160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087fb790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dadde0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883e890&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6ce50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08723400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886c7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886d960&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dad480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dac2e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d55ed0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f88b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0891ec20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886e470&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dac6a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac4220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087faad0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886d9f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087fa770&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6f670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087fa260&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dad330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac7700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac4280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac6770&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac5de0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f9b70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886d990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dae050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087fa5c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6d900&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087fb580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886ea70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883c430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f9f00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f8340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087fbbe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac6680&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6f040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6e0b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886fa00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac5ab0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087fbb50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886f5e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6f4f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f9480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886eb60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f16e15cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6e5c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883d480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883ec50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ac5db0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f9cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dac430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f90f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886c370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886cb80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f8070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886f7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dac820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883eec0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886f160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886d2d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f9d20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883ddb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883d810&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087ab910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883dd20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08720310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886c970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087fb1f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dad1e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0891d780&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883d6c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dae0b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d6eb30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886e080&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883c2e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087f83d0&gt;</t>
   </si>
   <si>
     <t>(0.9445431460090208, 0.9988734353089248)</t>
@@ -7968,244 +7968,244 @@
     <t>(9.583299007363675e-06, -201.5856121813593, 1.577668697558925)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d94b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de3790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e49330&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603af2740&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b35300&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de1c30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e49270&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db4b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de51b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005f520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de2230&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60396ff70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005c4c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de2e00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de5c30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de0400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db4940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de1990&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb64416dea0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db4b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b35a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb5ffe95d20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb600076170&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e4b8e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db60e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b36140&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de6140&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e489a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de3430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de17b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db47f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6065419c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db54b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de2b00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b37e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e4a980&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de7100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de6320&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b37520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606541f30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603dfffd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6de40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db6410&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b34820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de7730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db5d50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de1780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b36d70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b35bd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b34370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b376d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b37400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603dffb20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b35b40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b37430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b35120&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b35240&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b375e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de25c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b37100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606542440&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db49a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db7040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603d320b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603ade5c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606541c60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e4ab90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005f9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b36d10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db6020&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603e48910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db57e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603de7940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db59f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6065424a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6065433a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c6e860&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb64416feb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adc0d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b37070&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0891e530&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b14e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b1570&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088c6410&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d7dc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b0040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b1d50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b1270&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b1090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886cd30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d4cd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0886f490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b0b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d6cb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087bc7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d4970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b2da0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d5cf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088c4e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087be440&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d43a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088455d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088466e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d69b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088473d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d7ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b24a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d5bd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087e0a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b3e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b1870&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0890bdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b2f20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d6aa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d7f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b37c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b2e00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d67d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089096c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08908040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0890bd90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087bdcc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b1990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d7d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b0e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b08b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d7250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08908d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0890a290&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d5570&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d7760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0890a0e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088c4340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d59f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089098d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d7f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d7ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08908580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d40a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d6b30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089091e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b1ff0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087bdc90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08847a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0890bcd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0890bb50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d4dc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b04c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d6740&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088451e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883ec20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08807b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088b15d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08820100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08909f30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0890b520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087bd2a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088c4730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f088c5810&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f087d4ca0&gt;</t>
   </si>
   <si>
     <t>(0.05014949550633943,)</t>
@@ -8625,244 +8625,244 @@
     <t>(1.3528345606230632e-05, -234.47168146872792, 2.098698508701487)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603add0c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f3dc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f1930&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a1d630&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603881780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386dcc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adf3d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386f430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60005c580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c2e00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adf610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a0a440&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038d4940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60654ded0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603db6aa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038d5db0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60654c400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f3df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f0a00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2b1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a08760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f1840&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386c4c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f32e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f0310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b357b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386d480&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603add0f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603881ea0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60654c7c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386e770&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c29ed0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f2830&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386ef80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60654c9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038d4e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386fa90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f0040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adc580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adee90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386d990&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f13c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386eda0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603880ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386d360&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c293c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2b7c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60654ee30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f1180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adceb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f28f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603adf0a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386cbe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603add2d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f0490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386c7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f0dc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c28850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f03a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f3100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f37f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f1fc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2b700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f24a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f2d70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60654f8b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c284f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c29180&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6036c3ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60386da20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603a1cf40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603b36380&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60654eb90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6037d2f20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c29690&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60654ca00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c28460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6001a3d60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603c2a2c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f0880&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e2800&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bfaf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bcd00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085677c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e3e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d1690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e0430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d3c70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f05e2ee60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859f8e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e1f60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e3520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d2e30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08567310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0883d690&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d0220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e2770&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bc760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bd0c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859c550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e3490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bebc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d14b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bca60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bd4e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08909b10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d24d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d1420&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d1120&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0853b400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d3c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859fc70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bd600&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d08e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e1f00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08909090&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d1240&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bdb70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e2bf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d1630&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d2b60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085be380&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d29e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d0ca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d3f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859dff0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859d390&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e3340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bf940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e3370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085be680&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e1cc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d3580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d1a50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bdd50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bd120&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859cc40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859d660&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bf100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bd6f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bda50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bfa00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bebf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085be8c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bc430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e2050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859e4d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859d510&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08428eb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085d0a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085679a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08909ae0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08567340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859e560&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859de70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085e22c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08429870&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085fdff0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859f970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bcd30&gt;</t>
   </si>
   <si>
     <t>(2.0063680517180735,)</t>
@@ -9282,244 +9282,244 @@
     <t>(9.975236667717655e-06, -209.57801612536423, 1.7417376475067528)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f1a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331b40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606333c10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606333340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b7580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606370be0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331990&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331f00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6035faf20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b5270&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062e8e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606333580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606370490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331150&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606330640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606372e00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063737f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606371930&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b6c80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b55a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063313f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b43d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062d1ab0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b6e90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cfeb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606332380&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b4e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cebf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b4670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b4fa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b47c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606370130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331930&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331540&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063738b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b4d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b4b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331c00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b6ce0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331f60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b5b70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b7430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606333670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606331f90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606332230&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062ccbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cd780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cdf60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063715a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b7730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cc9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b5a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606330eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606330370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cc730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cde70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b4190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b6ef0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606371ed0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cefb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cd630&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cdae0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b6f20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b7910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cfe80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606372e60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b6a70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cd390&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062e9a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606332c50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606372ad0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6038f3b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6035f9150&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cc5e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cd030&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6035fae00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6063721a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062e97e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cd960&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b5090&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085be500&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cd780&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084ce9e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cc9a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08684ca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864e5c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cc6a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cc310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084b29e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08685990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f086f1540&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cc430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864ce80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864e860&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cc5b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864efe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864fa60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864e770&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08684760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08684b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cccd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bf6a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08486d40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08687970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08689cc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cee30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08685630&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f086888e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08687730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08684f70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cfe50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864f760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cc880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084ccb80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bf550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cfdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08685a50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084ce0e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08686740&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cc3a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08684790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08686ef0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cf550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cd990&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cdcc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08688670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0868a380&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0868abc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864f940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f086871f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08688430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08684880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864f430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cd060&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08688190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f086898d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08685360&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f086846a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864fb20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0868aa70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08689150&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08689630&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08686ce0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08687430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0868a230&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864e4d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08686530&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08688490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f086f1a50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084cd240&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0869ad40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085bf640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08698610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0868b550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0868a050&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08698220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864dae0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f086f1840&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08688220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08687580&gt;</t>
   </si>
   <si>
     <t>(0.5645151251008058,)</t>
@@ -9939,244 +9939,244 @@
     <t>(2.0661827951107397e-05, -77.30387482948709, 3.6392583823977667)</t>
   </si>
   <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606051f30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602f7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603f970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606018eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606053ca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603e6e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b7e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602ca90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60601b2e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603cbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606051690&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602fbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b6e00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611f84580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060519f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603e5f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606050790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606051780&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603c3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603ed10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa6200&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa4b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060517e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603cfa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603f910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062b77c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603f7c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606050070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603e1a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606050400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602f880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603e440&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606050a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602cc70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060514b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602d9f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603e7a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa5a50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602f010&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa74c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060534f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa5840&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606053c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603ec80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606052f50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa7370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa50c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603dab0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603c550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606051f00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602faf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603cdc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606052e60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602fcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603ff10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606053e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602fc70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa4160&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa7e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602cd60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa4400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603cd60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606052dd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa5db0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6062cd8d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603d720&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa5240&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb603822bf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611f855d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa7b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60603f250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa5b10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60601bdf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60601b0a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060510c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb6060537f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611f84910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb60602e260&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb611fa6ef0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7fb606051810&gt;</t>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084869b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08943f70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0869bdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08943160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08487ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0869bfa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084b1150&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b8700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089414b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f086f0100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084863b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08698670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859dba0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084853f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08485330&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864cf70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08485660&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08487e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d56260&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084b17e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859d2d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859c130&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08486860&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0869bca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0869a1d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089ba320&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084b1060&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08485ae0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d57790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08429db0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dec850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08687b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08487490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08d83be0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08485ea0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0864d480&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b9f60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08486dd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08defd30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08429f60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08487a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0842ad40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084874c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0869bd30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08485f90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0842af80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859cc10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084b2d70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0869bbb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08487340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08ded840&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08698a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08485240&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08943250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084b15d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08487910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08943e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859f310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08428e50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dec040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859c9a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084b1240&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08486a40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0842a680&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08940fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084b05e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859e710&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b83d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085fc250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f084283d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f089b85e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08487df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08942140&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08943c70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08485ff0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08484670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f085fd9c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f08dec9a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0842bfd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x7f5f0859e980&gt;</t>
   </si>
 </sst>
 </file>
